--- a/data/fact_data/parbhani/Parbhani_Sec_Feb_19.xlsx
+++ b/data/fact_data/parbhani/Parbhani_Sec_Feb_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/parbhani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6D9A26-974E-5342-9B98-CADF61CAAD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F93F33-B9DD-2D40-85EC-DE514983572F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Gonablok 200mg 3*10's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          PRODUCT</t>
   </si>
   <si>
     <t>Myospaz D          5*10's</t>
@@ -293,7 +290,10 @@
     <t>Total_Price</t>
   </si>
   <si>
-    <t>shrei Laxmi venketesh</t>
+    <t>Shri Laxmi Venkatesh</t>
+  </si>
+  <si>
+    <t>product_name</t>
   </si>
 </sst>
 </file>
@@ -1875,9 +1875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A366A464-7A6E-AD4A-8397-F3201310EB20}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -1886,31 +1884,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>84</v>
-      </c>
       <c r="F1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1927,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -1953,13 +1951,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -1983,13 +1981,13 @@
         <v>2093</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -2013,13 +2011,13 @@
         <v>1032</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -2043,13 +2041,13 @@
         <v>520</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -2073,13 +2071,13 @@
         <v>244</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -2103,13 +2101,13 @@
         <v>528</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -2133,13 +2131,13 @@
         <v>513</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -2147,7 +2145,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2159,13 +2157,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -2173,7 +2171,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2185,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -2215,13 +2213,13 @@
         <v>892</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -2245,13 +2243,13 @@
         <v>9150</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -2275,13 +2273,13 @@
         <v>4576</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -2289,7 +2287,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -2305,13 +2303,13 @@
         <v>98</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -2319,7 +2317,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -2332,13 +2330,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -2346,7 +2344,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>434</v>
@@ -2362,13 +2360,13 @@
         <v>12670</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -2376,7 +2374,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>229</v>
@@ -2392,13 +2390,13 @@
         <v>3626</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -2406,7 +2404,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2418,13 +2416,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -2432,7 +2430,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>10</v>
@@ -2448,13 +2446,13 @@
         <v>1596</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -2462,7 +2460,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>5</v>
@@ -2478,13 +2476,13 @@
         <v>5571</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -2492,7 +2490,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2501,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -2531,13 +2529,13 @@
         <v>3828</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -2545,7 +2543,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -2561,13 +2559,13 @@
         <v>340</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -2591,13 +2589,13 @@
         <v>240</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -2621,13 +2619,13 @@
         <v>3360</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -2635,7 +2633,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -2651,13 +2649,13 @@
         <v>830</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -2665,7 +2663,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -2681,13 +2679,13 @@
         <v>3440</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -2695,7 +2693,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
@@ -2711,13 +2709,13 @@
         <v>2160</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -2725,7 +2723,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -2741,13 +2739,13 @@
         <v>538</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -2755,7 +2753,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -2771,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -2785,7 +2783,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -2801,13 +2799,13 @@
         <v>1578</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -2815,7 +2813,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -2831,13 +2829,13 @@
         <v>1730</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -2861,13 +2859,13 @@
         <v>1726</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -2875,7 +2873,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2884,13 +2882,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -2914,13 +2912,13 @@
         <v>2272</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -2944,13 +2942,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -2974,13 +2972,13 @@
         <v>3820</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -2988,7 +2986,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -3004,13 +3002,13 @@
         <v>1680</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -3034,13 +3032,13 @@
         <v>2574</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -3064,13 +3062,13 @@
         <v>5432</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -3078,7 +3076,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>2</v>
@@ -3094,13 +3092,13 @@
         <v>1270</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -3108,7 +3106,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -3124,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -3138,7 +3136,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -3154,13 +3152,13 @@
         <v>3775</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -3168,7 +3166,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3177,13 +3175,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -3191,7 +3189,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3">
         <v>0</v>
@@ -3204,13 +3202,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -3234,13 +3232,13 @@
         <v>3936</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -3264,13 +3262,13 @@
         <v>628</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -3294,13 +3292,13 @@
         <v>669</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -3308,7 +3306,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3317,13 +3315,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -3331,7 +3329,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>0</v>
@@ -3347,13 +3345,13 @@
         <v>2420</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -3361,7 +3359,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3371,13 +3369,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -3385,7 +3383,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>18</v>
@@ -3401,13 +3399,13 @@
         <v>11535</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -3415,7 +3413,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3425,13 +3423,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -3439,7 +3437,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3">
         <v>4</v>
@@ -3455,13 +3453,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -3469,7 +3467,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3479,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -3493,7 +3491,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
@@ -3509,13 +3507,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -3523,7 +3521,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>2</v>
@@ -3539,13 +3537,13 @@
         <v>472</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -3553,7 +3551,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -3569,13 +3567,13 @@
         <v>672</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -3583,7 +3581,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -3599,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -3613,7 +3611,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -3629,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -3643,7 +3641,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3651,13 +3649,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -3665,7 +3663,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
@@ -3677,13 +3675,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -3691,7 +3689,7 @@
     </row>
     <row r="64" spans="1:9" ht="14">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -3703,13 +3701,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -3717,7 +3715,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -3729,13 +3727,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -3743,18 +3741,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -3762,7 +3760,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>5</v>
@@ -3774,13 +3772,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -3788,7 +3786,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3796,13 +3794,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -3810,7 +3808,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>12</v>
@@ -3822,13 +3820,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -3836,7 +3834,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>13</v>
@@ -3848,13 +3846,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -3862,7 +3860,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>180358</v>
@@ -3871,13 +3869,13 @@
         <v>102577</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -3893,9 +3891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DC2B61-4217-A44E-B170-F7E9B5E915E9}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -3905,31 +3901,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>84</v>
-      </c>
       <c r="F1" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3950,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -3980,13 +3976,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -4010,13 +4006,13 @@
         <v>6006</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -4036,13 +4032,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -4062,13 +4058,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -4088,13 +4084,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -4118,13 +4114,13 @@
         <v>1408</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -4148,13 +4144,13 @@
         <v>969</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -4162,7 +4158,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4174,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -4188,7 +4184,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4200,13 +4196,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -4226,13 +4222,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -4256,13 +4252,13 @@
         <v>5551</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -4282,13 +4278,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -4296,7 +4292,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4308,13 +4304,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -4322,7 +4318,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4331,13 +4327,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -4345,7 +4341,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>30</v>
@@ -4361,13 +4357,13 @@
         <v>3780</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -4375,7 +4371,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>89</v>
@@ -4391,13 +4387,13 @@
         <v>3332</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -4405,7 +4401,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4417,13 +4413,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -4431,7 +4427,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4443,13 +4439,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -4457,7 +4453,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4469,13 +4465,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -4483,7 +4479,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4492,13 +4488,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -4522,13 +4518,13 @@
         <v>5104</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -4536,7 +4532,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -4552,13 +4548,13 @@
         <v>136</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -4582,13 +4578,13 @@
         <v>720</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -4612,13 +4608,13 @@
         <v>2400</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -4626,7 +4622,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -4642,13 +4638,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -4656,7 +4652,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -4670,13 +4666,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -4684,7 +4680,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -4700,13 +4696,13 @@
         <v>1080</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -4714,7 +4710,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -4730,13 +4726,13 @@
         <v>538</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -4744,7 +4740,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -4760,13 +4756,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -4774,7 +4770,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -4790,13 +4786,13 @@
         <v>1578</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -4804,7 +4800,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -4820,13 +4816,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -4850,13 +4846,13 @@
         <v>1726</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -4864,7 +4860,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4873,13 +4869,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -4903,13 +4899,13 @@
         <v>1136</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -4929,13 +4925,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -4955,13 +4951,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -4969,7 +4965,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4981,13 +4977,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -5007,13 +5003,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -5033,13 +5029,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -5047,7 +5043,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -5063,13 +5059,13 @@
         <v>2540</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -5077,7 +5073,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -5093,13 +5089,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -5107,7 +5103,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -5123,13 +5119,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -5137,7 +5133,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -5146,13 +5142,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -5160,7 +5156,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -5169,13 +5165,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -5195,13 +5191,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -5221,13 +5217,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -5251,13 +5247,13 @@
         <v>2007</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -5265,7 +5261,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -5274,13 +5270,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -5288,7 +5284,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -5304,13 +5300,13 @@
         <v>3872</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -5318,7 +5314,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -5328,13 +5324,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -5342,7 +5338,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5354,13 +5350,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -5368,7 +5364,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5378,13 +5374,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -5392,7 +5388,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5404,13 +5400,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -5418,7 +5414,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5428,13 +5424,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -5442,7 +5438,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5454,13 +5450,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -5468,7 +5464,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5480,13 +5476,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -5494,7 +5490,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5506,13 +5502,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -5520,7 +5516,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5532,13 +5528,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -5546,7 +5542,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -5558,13 +5554,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -5572,7 +5568,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5580,13 +5576,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -5594,7 +5590,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5602,13 +5598,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -5616,7 +5612,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -5624,13 +5620,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -5638,7 +5634,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -5646,13 +5642,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -5660,18 +5656,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -5679,7 +5675,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>5</v>
@@ -5691,13 +5687,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -5705,7 +5701,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -5713,13 +5709,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -5727,7 +5723,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -5739,13 +5735,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -5753,7 +5749,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -5765,13 +5761,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -5779,7 +5775,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>22294</v>
@@ -5788,13 +5784,13 @@
         <v>60000</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -5809,9 +5805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8803B3AD-3034-1048-B0AB-2AA2336E3FB4}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -5821,31 +5815,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>84</v>
-      </c>
       <c r="F1" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5862,13 +5856,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -5888,13 +5882,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -5918,13 +5912,13 @@
         <v>1547</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -5944,13 +5938,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -5970,13 +5964,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -5996,13 +5990,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -6026,13 +6020,13 @@
         <v>3080</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -6056,13 +6050,13 @@
         <v>741</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -6070,7 +6064,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -6086,13 +6080,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -6100,7 +6094,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -6116,13 +6110,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -6142,13 +6136,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -6172,13 +6166,13 @@
         <v>4941</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -6202,13 +6196,13 @@
         <v>3016</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -6216,7 +6210,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -6232,13 +6226,13 @@
         <v>343</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -6246,7 +6240,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>10</v>
@@ -6259,13 +6253,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -6273,7 +6267,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>305</v>
@@ -6289,13 +6283,13 @@
         <v>8330</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -6303,7 +6297,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>201</v>
@@ -6319,13 +6313,13 @@
         <v>3430</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -6333,7 +6327,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -6349,13 +6343,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -6363,7 +6357,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -6379,13 +6373,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -6393,7 +6387,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>9</v>
@@ -6409,13 +6403,13 @@
         <v>6190</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -6423,7 +6417,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6432,13 +6426,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -6462,13 +6456,13 @@
         <v>0</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -6476,7 +6470,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>6</v>
@@ -6492,13 +6486,13 @@
         <v>136</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -6522,13 +6516,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -6552,13 +6546,13 @@
         <v>1920</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -6566,7 +6560,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -6582,13 +6576,13 @@
         <v>1660</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -6596,7 +6590,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -6612,13 +6606,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -6626,7 +6620,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -6642,13 +6636,13 @@
         <v>2160</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -6656,7 +6650,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -6672,13 +6666,13 @@
         <v>269</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -6686,7 +6680,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -6702,13 +6696,13 @@
         <v>3165</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -6716,7 +6710,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>2</v>
@@ -6732,13 +6726,13 @@
         <v>1578</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -6746,7 +6740,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -6762,13 +6756,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -6792,13 +6786,13 @@
         <v>1726</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -6806,7 +6800,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6815,13 +6809,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -6845,13 +6839,13 @@
         <v>2272</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -6875,13 +6869,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -6905,13 +6899,13 @@
         <v>4775</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -6919,7 +6913,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
@@ -6935,13 +6929,13 @@
         <v>336</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -6965,13 +6959,13 @@
         <v>2574</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -6995,13 +6989,13 @@
         <v>1358</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -7009,7 +7003,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -7025,13 +7019,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -7039,7 +7033,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -7055,13 +7049,13 @@
         <v>1184</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -7069,7 +7063,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>3</v>
@@ -7085,13 +7079,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -7099,7 +7093,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -7108,13 +7102,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -7122,7 +7116,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -7131,13 +7125,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -7161,13 +7155,13 @@
         <v>3936</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -7191,13 +7185,13 @@
         <v>942</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -7221,13 +7215,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -7235,7 +7229,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -7244,13 +7238,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -7258,7 +7252,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -7274,13 +7268,13 @@
         <v>3388</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -7288,7 +7282,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -7298,13 +7292,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -7312,7 +7306,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>3</v>
@@ -7328,13 +7322,13 @@
         <v>9228</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -7342,7 +7336,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -7352,13 +7346,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -7366,7 +7360,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -7382,13 +7376,13 @@
         <v>1550</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -7396,7 +7390,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -7406,13 +7400,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -7420,7 +7414,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
@@ -7436,13 +7430,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -7450,7 +7444,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -7466,13 +7460,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -7480,7 +7474,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -7496,13 +7490,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -7510,7 +7504,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -7526,13 +7520,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -7540,7 +7534,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -7556,13 +7550,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -7570,7 +7564,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -7578,13 +7572,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -7592,7 +7586,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
@@ -7604,13 +7598,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -7618,7 +7612,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -7630,13 +7624,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -7644,7 +7638,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -7656,13 +7650,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -7670,18 +7664,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -7689,7 +7683,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>3</v>
@@ -7701,13 +7695,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -7715,7 +7709,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>0</v>
@@ -7727,13 +7721,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -7741,7 +7735,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>2</v>
@@ -7753,13 +7747,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -7767,7 +7761,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>10</v>
@@ -7779,13 +7773,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -7793,7 +7787,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>110698</v>
@@ -7802,13 +7796,13 @@
         <v>83134</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -7823,9 +7817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81450CD-4BCC-3B48-951B-DD26CC02B66F}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -7834,31 +7826,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>84</v>
-      </c>
       <c r="F1" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7875,13 +7867,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -7901,13 +7893,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -7931,13 +7923,13 @@
         <v>5915</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -7957,13 +7949,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -7987,13 +7979,13 @@
         <v>390</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -8013,13 +8005,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -8043,13 +8035,13 @@
         <v>5280</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -8073,13 +8065,13 @@
         <v>1596</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -8087,7 +8079,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -8099,13 +8091,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -8113,7 +8105,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -8125,13 +8117,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -8155,13 +8147,13 @@
         <v>223</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -8185,13 +8177,13 @@
         <v>13725</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -8215,13 +8207,13 @@
         <v>10296</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -8229,7 +8221,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -8245,13 +8237,13 @@
         <v>245</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -8259,7 +8251,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -8272,13 +8264,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -8286,7 +8278,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>100</v>
@@ -8302,13 +8294,13 @@
         <v>22470</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -8316,7 +8308,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>122</v>
@@ -8332,13 +8324,13 @@
         <v>5439</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -8346,7 +8338,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8358,13 +8350,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -8372,7 +8364,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>14</v>
@@ -8388,13 +8380,13 @@
         <v>21945</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -8402,7 +8394,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -8414,13 +8406,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -8428,7 +8420,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8437,13 +8429,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -8467,13 +8459,13 @@
         <v>3828</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -8481,7 +8473,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -8497,13 +8489,13 @@
         <v>408</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -8527,13 +8519,13 @@
         <v>3120</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -8557,13 +8549,13 @@
         <v>1920</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -8571,7 +8563,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -8587,13 +8579,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -8601,7 +8593,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -8617,13 +8609,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -8631,7 +8623,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -8647,13 +8639,13 @@
         <v>6480</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -8661,7 +8653,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -8677,13 +8669,13 @@
         <v>1345</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -8691,7 +8683,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -8707,13 +8699,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -8721,7 +8713,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -8737,13 +8729,13 @@
         <v>3945</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -8751,7 +8743,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -8767,13 +8759,13 @@
         <v>2595</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -8797,13 +8789,13 @@
         <v>4315</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -8811,7 +8803,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8820,13 +8812,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -8850,13 +8842,13 @@
         <v>4544</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -8880,13 +8872,13 @@
         <v>2734</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -8910,13 +8902,13 @@
         <v>4775</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -8924,7 +8916,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -8940,13 +8932,13 @@
         <v>1680</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -8966,13 +8958,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -8992,13 +8984,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -9006,7 +8998,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -9022,13 +9014,13 @@
         <v>2540</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -9036,7 +9028,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -9052,13 +9044,13 @@
         <v>1184</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -9066,7 +9058,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -9082,13 +9074,13 @@
         <v>2265</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -9096,7 +9088,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -9105,13 +9097,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -9119,7 +9111,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -9128,13 +9120,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -9158,13 +9150,13 @@
         <v>4920</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -9188,13 +9180,13 @@
         <v>785</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -9218,13 +9210,13 @@
         <v>669</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -9232,7 +9224,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -9241,13 +9233,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -9255,7 +9247,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>0</v>
@@ -9271,13 +9263,13 @@
         <v>2420</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -9285,7 +9277,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -9295,13 +9287,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -9309,7 +9301,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>5</v>
@@ -9325,13 +9317,13 @@
         <v>17687</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -9339,7 +9331,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -9349,13 +9341,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -9363,7 +9355,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -9379,13 +9371,13 @@
         <v>310</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -9393,7 +9385,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -9403,13 +9395,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -9417,7 +9409,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -9429,13 +9421,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -9443,7 +9435,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -9455,13 +9447,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -9469,7 +9461,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -9481,13 +9473,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -9495,7 +9487,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -9507,13 +9499,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -9521,7 +9513,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -9533,13 +9525,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -9547,7 +9539,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -9555,13 +9547,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -9569,7 +9561,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -9577,13 +9569,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -9591,7 +9583,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -9599,13 +9591,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -9613,7 +9605,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -9621,13 +9613,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -9635,18 +9627,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -9654,7 +9646,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>4</v>
@@ -9666,13 +9658,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -9680,7 +9672,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -9688,13 +9680,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -9702,7 +9694,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>10</v>
@@ -9714,13 +9706,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -9728,7 +9720,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>15</v>
@@ -9740,13 +9732,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -9754,7 +9746,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>52640</v>
@@ -9763,13 +9755,13 @@
         <v>199722</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -9784,9 +9776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E5807C-23FC-5B42-AF19-B80F265C4F84}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -9796,31 +9786,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>84</v>
-      </c>
       <c r="F1" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -9837,13 +9827,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -9863,13 +9853,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -9893,13 +9883,13 @@
         <v>5915</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -9919,13 +9909,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -9949,13 +9939,13 @@
         <v>390</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -9975,13 +9965,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -10005,13 +9995,13 @@
         <v>5280</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -10035,13 +10025,13 @@
         <v>1596</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -10049,7 +10039,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -10061,13 +10051,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -10075,7 +10065,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -10087,13 +10077,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -10117,13 +10107,13 @@
         <v>223</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -10147,13 +10137,13 @@
         <v>13725</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -10177,13 +10167,13 @@
         <v>10296</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -10191,7 +10181,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -10207,13 +10197,13 @@
         <v>245</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -10221,7 +10211,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -10234,13 +10224,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -10248,7 +10238,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>100</v>
@@ -10264,13 +10254,13 @@
         <v>22470</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -10278,7 +10268,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>122</v>
@@ -10294,13 +10284,13 @@
         <v>5439</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -10308,7 +10298,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -10320,13 +10310,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -10334,7 +10324,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>14</v>
@@ -10350,13 +10340,13 @@
         <v>21945</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -10364,7 +10354,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -10376,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -10390,7 +10380,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -10399,13 +10389,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -10429,13 +10419,13 @@
         <v>3828</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -10443,7 +10433,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -10459,13 +10449,13 @@
         <v>408</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -10489,13 +10479,13 @@
         <v>3120</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -10519,13 +10509,13 @@
         <v>1920</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -10533,7 +10523,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -10549,13 +10539,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -10563,7 +10553,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -10579,13 +10569,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -10593,7 +10583,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -10609,13 +10599,13 @@
         <v>6480</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -10623,7 +10613,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -10639,13 +10629,13 @@
         <v>1345</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -10653,7 +10643,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -10669,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -10683,7 +10673,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -10699,13 +10689,13 @@
         <v>3945</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -10713,7 +10703,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -10729,13 +10719,13 @@
         <v>2595</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -10759,13 +10749,13 @@
         <v>4315</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -10773,7 +10763,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10782,13 +10772,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -10812,13 +10802,13 @@
         <v>4544</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -10842,13 +10832,13 @@
         <v>2734</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -10872,13 +10862,13 @@
         <v>4775</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -10886,7 +10876,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -10902,13 +10892,13 @@
         <v>1680</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -10928,13 +10918,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -10954,13 +10944,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -10968,7 +10958,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -10984,13 +10974,13 @@
         <v>2540</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -10998,7 +10988,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -11014,13 +11004,13 @@
         <v>1184</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -11028,7 +11018,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -11044,13 +11034,13 @@
         <v>2265</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -11058,7 +11048,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -11067,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -11081,7 +11071,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -11090,13 +11080,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -11120,13 +11110,13 @@
         <v>4920</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -11150,13 +11140,13 @@
         <v>785</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -11180,13 +11170,13 @@
         <v>669</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -11194,7 +11184,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -11203,13 +11193,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -11217,7 +11207,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>0</v>
@@ -11233,13 +11223,13 @@
         <v>2420</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -11247,7 +11237,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -11257,13 +11247,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -11271,7 +11261,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>5</v>
@@ -11287,13 +11277,13 @@
         <v>17687</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -11301,7 +11291,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -11311,13 +11301,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -11325,7 +11315,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -11341,13 +11331,13 @@
         <v>310</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -11355,7 +11345,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -11365,13 +11355,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -11379,7 +11369,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -11391,13 +11381,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -11405,7 +11395,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -11417,13 +11407,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -11431,7 +11421,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -11443,13 +11433,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -11457,7 +11447,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -11469,13 +11459,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -11483,7 +11473,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -11495,13 +11485,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -11509,7 +11499,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -11517,13 +11507,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -11531,7 +11521,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -11539,13 +11529,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -11553,7 +11543,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -11561,13 +11551,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -11575,7 +11565,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -11583,13 +11573,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -11597,18 +11587,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -11616,7 +11606,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>4</v>
@@ -11628,13 +11618,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -11642,7 +11632,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -11650,13 +11640,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -11664,7 +11654,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>10</v>
@@ -11676,13 +11666,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -11690,7 +11680,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>15</v>
@@ -11702,13 +11692,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -11716,7 +11706,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>52640</v>
@@ -11725,13 +11715,13 @@
         <v>199722</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I71">
         <v>2019</v>
